--- a/Demo/GCMS_corrected.xlsx
+++ b/Demo/GCMS_corrected.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raaisa/Documents/NA_Correction/Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A5A0BB-6617-A942-AD80-3D94648BC994}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C075F6D5-97C3-BD43-9CE2-57BDC44BEA80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GCMS_corrected" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Unlabeled Fragment</t>
   </si>
   <si>
-    <t>Indistinguishable_isotope</t>
-  </si>
-  <si>
     <t>NA Corrected</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>sample1</t>
   </si>
   <si>
-    <t>{'C': ['H', 'O']}</t>
-  </si>
-  <si>
     <t>C13-label-1</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
   </si>
   <si>
     <t>JKK matrix</t>
-  </si>
-  <si>
-    <t>IsoCor</t>
   </si>
   <si>
     <t>Corna</t>
@@ -969,14 +960,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -1013,49 +1004,43 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
       </c>
       <c r="F2">
         <v>0.57137616000000002</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>0.70371453259013905</v>
       </c>
       <c r="I2">
-        <v>0.70139592853392296</v>
+        <v>0.57137616000000002</v>
       </c>
       <c r="J2">
-        <v>0.57137616000000002</v>
+        <v>0.70371453259013905</v>
       </c>
       <c r="K2">
-        <v>0.70139592853392296</v>
+        <v>1.0056735083948301</v>
       </c>
       <c r="L2">
-        <v>1.0023835348511401</v>
-      </c>
-      <c r="M2">
-        <v>0.69972810221596304</v>
+        <v>0.69974452614680505</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1063,39 +1048,36 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
       </c>
       <c r="F3">
         <v>0.10365168599999899</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>-4.1040751294235097E-3</v>
       </c>
       <c r="I3">
-        <v>-1.80129517113847E-3</v>
+        <v>0.10365168599999899</v>
       </c>
       <c r="J3">
-        <v>0.10365168599999899</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.0056735083948301</v>
       </c>
       <c r="L3">
-        <v>1.0023835348511401</v>
-      </c>
-      <c r="M3">
         <v>0</v>
       </c>
     </row>
@@ -1104,40 +1086,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
       <c r="F4">
         <v>0.27202383099999999</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>0.30179284270377399</v>
       </c>
       <c r="I4">
-        <v>0.30081411918897</v>
+        <v>0.27202383099999999</v>
       </c>
       <c r="J4">
-        <v>0.27202383099999999</v>
+        <v>0.30179284270377399</v>
       </c>
       <c r="K4">
-        <v>0.30081411918897</v>
+        <v>1.0056735083948301</v>
       </c>
       <c r="L4">
-        <v>1.0023835348511401</v>
-      </c>
-      <c r="M4">
-        <v>0.30009882318511899</v>
+        <v>0.30009027799237598</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1145,39 +1124,36 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
       </c>
       <c r="F5">
         <v>4.2744629999999999E-2</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>-1.5686922224460401E-3</v>
       </c>
       <c r="I5">
-        <v>-5.8156387921155697E-4</v>
+        <v>4.2744629999999999E-2</v>
       </c>
       <c r="J5">
-        <v>4.2744629999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.0056735083948301</v>
       </c>
       <c r="L5">
-        <v>1.0023835348511401</v>
-      </c>
-      <c r="M5">
         <v>0</v>
       </c>
     </row>
@@ -1186,40 +1162,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
       </c>
       <c r="F6">
         <v>8.9837219999999995E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>1.6285009780465199E-4</v>
       </c>
       <c r="I6">
-        <v>1.6963978294619699E-4</v>
+        <v>8.9837219999999995E-3</v>
       </c>
       <c r="J6">
-        <v>8.9837219999999995E-3</v>
+        <v>1.6285009780465199E-4</v>
       </c>
       <c r="K6">
-        <v>1.6963978294619699E-4</v>
+        <v>1.0056735083948301</v>
       </c>
       <c r="L6">
-        <v>1.0023835348511401</v>
-      </c>
-      <c r="M6">
-        <v>1.6923640208374701E-4</v>
+        <v>1.61931378767825E-4</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1227,86 +1200,81 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
       </c>
       <c r="F7">
         <v>1.0732529999999999E-3</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3.3904826903243701E-6</v>
-      </c>
-      <c r="J7">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.7780036118700701E-6</v>
+      </c>
+      <c r="I7">
         <v>1.0732529999999999E-3</v>
       </c>
-      <c r="K7" s="1">
-        <v>3.3904826903243701E-6</v>
-      </c>
-      <c r="L7">
-        <v>1.0023835348511401</v>
-      </c>
-      <c r="M7" s="1">
-        <v>3.38242057300737E-6</v>
-      </c>
+      <c r="J7" s="1">
+        <v>2.7780036118700701E-6</v>
+      </c>
+      <c r="K7">
+        <v>1.0056735083948301</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2.7623315009103399E-6</v>
+      </c>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
       </c>
       <c r="F8">
         <v>1.3275799999999999E-4</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1">
-        <v>-2.17942343713371E-7</v>
+        <v>11</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-2.3560814484870199E-7</v>
+      </c>
+      <c r="I8">
+        <v>1.3275799999999999E-4</v>
       </c>
       <c r="J8">
-        <v>1.3275799999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.0056735083948301</v>
       </c>
       <c r="L8">
-        <v>1.0023835348511401</v>
-      </c>
-      <c r="M8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1316,31 +1284,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>27</v>
       </c>
       <c r="B2">
         <v>0.571376</v>
@@ -1349,15 +1314,12 @@
         <v>0.7</v>
       </c>
       <c r="D2">
-        <v>0.69940000000000002</v>
-      </c>
-      <c r="E2">
         <v>0.69972810221596304</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>0.10365199999999999</v>
@@ -1366,15 +1328,12 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>0.27202399999999999</v>
@@ -1383,15 +1342,12 @@
         <v>0.3</v>
       </c>
       <c r="D4">
-        <v>0.29980000000000001</v>
-      </c>
-      <c r="E4">
         <v>0.30009882318511899</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>4.2744999999999998E-2</v>
@@ -1400,15 +1356,12 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>8.9840000000000007E-3</v>
@@ -1417,15 +1370,12 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
         <v>1.6923640208374701E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>1.073E-3</v>
@@ -1433,16 +1383,13 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="1">
         <v>3.38242057300737E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>1.3275799999999999E-4</v>
@@ -1451,9 +1398,6 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
         <v>0</v>
       </c>
     </row>

--- a/Demo/GCMS_corrected.xlsx
+++ b/Demo/GCMS_corrected.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raaisa/Documents/NA_Correction/Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C075F6D5-97C3-BD43-9CE2-57BDC44BEA80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D51B98-AE88-5541-9775-7ED1A066B580}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5680" yWindow="1200" windowWidth="28040" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GCMS_corrected" sheetId="1" r:id="rId1"/>
@@ -1314,7 +1314,7 @@
         <v>0.7</v>
       </c>
       <c r="D2">
-        <v>0.69972810221596304</v>
+        <v>0.70371453259013905</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1342,7 +1342,7 @@
         <v>0.3</v>
       </c>
       <c r="D4">
-        <v>0.30009882318511899</v>
+        <v>0.30179284270377399</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.6923640208374701E-4</v>
+        <v>1.6285009780465199E-4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>3.38242057300737E-6</v>
+        <v>2.7780036118700701E-6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
